--- a/output/1Y_P24_KFSDIV.xlsx
+++ b/output/1Y_P24_KFSDIV.xlsx
@@ -727,16 +727,16 @@
         <v>12.2867</v>
       </c>
       <c r="C2" s="1">
-        <v>12.2867</v>
+        <v>12.2621</v>
       </c>
       <c r="D2" s="1">
-        <v>12.2867</v>
+        <v>12.3113</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>813.8882</v>
+        <v>812.2619</v>
       </c>
       <c r="H2" s="1">
         <v>0</v>
@@ -771,31 +771,31 @@
         <v>13.0645</v>
       </c>
       <c r="C3" s="1">
-        <v>13.0645</v>
+        <v>13.0384</v>
       </c>
       <c r="D3" s="1">
-        <v>13.0645</v>
+        <v>13.0907</v>
       </c>
       <c r="E3" s="1">
-        <v>813.8882</v>
+        <v>812.2619</v>
       </c>
       <c r="F3" s="1">
-        <v>765.433</v>
+        <v>763.9011</v>
       </c>
       <c r="H3" s="1">
-        <v>10633.0422</v>
+        <v>10590.5956</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>10633.0422</v>
+        <v>10590.5956</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>12.2867</v>
+        <v>12.3113</v>
       </c>
       <c r="M3" s="1">
         <v>0</v>
@@ -810,7 +810,7 @@
         <v>-10000</v>
       </c>
       <c r="Q3" s="3">
-        <v>0.0633</v>
+        <v>0.0591</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -821,31 +821,31 @@
         <v>13.8083</v>
       </c>
       <c r="C4" s="1">
-        <v>13.8083</v>
+        <v>13.7807</v>
       </c>
       <c r="D4" s="1">
-        <v>13.8083</v>
+        <v>13.836</v>
       </c>
       <c r="E4" s="1">
-        <v>1579.3212</v>
+        <v>1576.163</v>
       </c>
       <c r="F4" s="1">
-        <v>724.2021</v>
+        <v>722.7522</v>
       </c>
       <c r="H4" s="1">
-        <v>21807.7414</v>
+        <v>21720.6294</v>
       </c>
       <c r="I4" s="1">
         <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>21807.7414</v>
+        <v>21720.6294</v>
       </c>
       <c r="K4" s="1">
         <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>12.6637</v>
+        <v>12.689</v>
       </c>
       <c r="M4" s="1">
         <v>0</v>
@@ -860,7 +860,7 @@
         <v>-10000</v>
       </c>
       <c r="Q4" s="3">
-        <v>0.0569</v>
+        <v>0.0549</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -871,46 +871,46 @@
         <v>13.5636</v>
       </c>
       <c r="C5" s="1">
-        <v>13.5636</v>
+        <v>13.5365</v>
       </c>
       <c r="D5" s="1">
-        <v>13.5636</v>
+        <v>13.5908</v>
       </c>
       <c r="E5" s="1">
-        <v>2303.5233</v>
+        <v>2298.9152</v>
       </c>
       <c r="F5" s="1">
-        <v>737.2674</v>
+        <v>735.7919000000001</v>
       </c>
       <c r="H5" s="1">
-        <v>31244.0692</v>
+        <v>31119.2661</v>
       </c>
       <c r="I5" s="1">
         <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>31244.0692</v>
+        <v>31119.2661</v>
       </c>
       <c r="K5" s="1">
         <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>13.0235</v>
+        <v>13.0496</v>
       </c>
       <c r="M5" s="1">
         <v>0.5</v>
       </c>
       <c r="N5" s="1">
-        <v>710.6946</v>
+        <v>709.2732999999999</v>
       </c>
       <c r="O5" s="1">
         <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>-9289.305399999999</v>
+        <v>-9290.726699999999</v>
       </c>
       <c r="Q5" s="3">
-        <v>-0.0177</v>
+        <v>-0.019</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -921,31 +921,31 @@
         <v>13.1788</v>
       </c>
       <c r="C6" s="1">
-        <v>13.1788</v>
+        <v>13.1524</v>
       </c>
       <c r="D6" s="1">
-        <v>13.1788</v>
+        <v>13.2052</v>
       </c>
       <c r="E6" s="1">
-        <v>3040.7907</v>
+        <v>3034.7071</v>
       </c>
       <c r="F6" s="1">
-        <v>765.5353</v>
+        <v>763.9914</v>
       </c>
       <c r="H6" s="1">
-        <v>40073.9729</v>
+        <v>39913.6816</v>
       </c>
       <c r="I6" s="1">
-        <v>710.6946</v>
+        <v>709.2732999999999</v>
       </c>
       <c r="J6" s="1">
-        <v>40784.6675</v>
+        <v>40622.955</v>
       </c>
       <c r="K6" s="1">
         <v>40000</v>
       </c>
       <c r="L6" s="1">
-        <v>13.1545</v>
+        <v>13.1808</v>
       </c>
       <c r="M6" s="1">
         <v>0</v>
@@ -957,10 +957,10 @@
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-10088.8368</v>
+        <v>-10088.6592</v>
       </c>
       <c r="Q6" s="3">
-        <v>-0.0111</v>
+        <v>-0.0121</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -971,31 +971,31 @@
         <v>14.5668</v>
       </c>
       <c r="C7" s="1">
-        <v>14.5668</v>
+        <v>14.5377</v>
       </c>
       <c r="D7" s="1">
-        <v>14.5668</v>
+        <v>14.596</v>
       </c>
       <c r="E7" s="1">
-        <v>3806.3261</v>
+        <v>3798.6985</v>
       </c>
       <c r="F7" s="1">
-        <v>692.5912</v>
+        <v>691.1934</v>
       </c>
       <c r="H7" s="1">
-        <v>55445.9903</v>
+        <v>55224.339</v>
       </c>
       <c r="I7" s="1">
-        <v>621.8577</v>
+        <v>620.6142</v>
       </c>
       <c r="J7" s="1">
-        <v>56067.848</v>
+        <v>55844.9532</v>
       </c>
       <c r="K7" s="1">
-        <v>50088.8368</v>
+        <v>50088.6592</v>
       </c>
       <c r="L7" s="1">
-        <v>13.1594</v>
+        <v>13.1857</v>
       </c>
       <c r="M7" s="1">
         <v>0</v>
@@ -1007,10 +1007,10 @@
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-10088.8368</v>
+        <v>-10088.6592</v>
       </c>
       <c r="Q7" s="3">
-        <v>0.104</v>
+        <v>0.1032</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1021,46 +1021,46 @@
         <v>13.962</v>
       </c>
       <c r="C8" s="1">
-        <v>13.962</v>
+        <v>13.9341</v>
       </c>
       <c r="D8" s="1">
-        <v>13.962</v>
+        <v>13.99</v>
       </c>
       <c r="E8" s="1">
-        <v>4498.9172</v>
+        <v>4489.8919</v>
       </c>
       <c r="F8" s="1">
-        <v>722.5925</v>
+        <v>721.1336</v>
       </c>
       <c r="H8" s="1">
-        <v>62813.882</v>
+        <v>62562.6029</v>
       </c>
       <c r="I8" s="1">
-        <v>533.0209</v>
+        <v>531.955</v>
       </c>
       <c r="J8" s="1">
-        <v>63346.9029</v>
+        <v>63094.5579</v>
       </c>
       <c r="K8" s="1">
-        <v>60177.6736</v>
+        <v>60177.3183</v>
       </c>
       <c r="L8" s="1">
-        <v>13.376</v>
+        <v>13.4028</v>
       </c>
       <c r="M8" s="1">
         <v>0.5</v>
       </c>
       <c r="N8" s="1">
-        <v>1712.8467</v>
+        <v>1709.4143</v>
       </c>
       <c r="O8" s="1">
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-8375.990100000001</v>
+        <v>-8379.2448</v>
       </c>
       <c r="Q8" s="3">
-        <v>-0.0412</v>
+        <v>-0.0418</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1071,31 +1071,31 @@
         <v>12.2659</v>
       </c>
       <c r="C9" s="1">
-        <v>12.2659</v>
+        <v>12.2414</v>
       </c>
       <c r="D9" s="1">
-        <v>12.2659</v>
+        <v>12.2905</v>
       </c>
       <c r="E9" s="1">
-        <v>5221.5097</v>
+        <v>5211.0255</v>
       </c>
       <c r="F9" s="1">
-        <v>850.4395</v>
+        <v>848.667</v>
       </c>
       <c r="H9" s="1">
-        <v>64046.5162</v>
+        <v>63790.2478</v>
       </c>
       <c r="I9" s="1">
-        <v>2157.0308</v>
+        <v>2152.7102</v>
       </c>
       <c r="J9" s="1">
-        <v>66203.54700000001</v>
+        <v>65942.95789999999</v>
       </c>
       <c r="K9" s="1">
-        <v>70266.5105</v>
+        <v>70265.97749999999</v>
       </c>
       <c r="L9" s="1">
-        <v>13.4571</v>
+        <v>13.4841</v>
       </c>
       <c r="M9" s="1">
         <v>0</v>
@@ -1107,10 +1107,10 @@
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-10431.4062</v>
+        <v>-10430.542</v>
       </c>
       <c r="Q9" s="3">
-        <v>-0.0974</v>
+        <v>-0.0978</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1121,31 +1121,31 @@
         <v>12.4103</v>
       </c>
       <c r="C10" s="1">
-        <v>12.4103</v>
+        <v>12.3855</v>
       </c>
       <c r="D10" s="1">
-        <v>12.4103</v>
+        <v>12.4352</v>
       </c>
       <c r="E10" s="1">
-        <v>6071.9493</v>
+        <v>6059.6925</v>
       </c>
       <c r="F10" s="1">
-        <v>840.5442</v>
+        <v>838.7917</v>
       </c>
       <c r="H10" s="1">
-        <v>75354.7118</v>
+        <v>75052.322</v>
       </c>
       <c r="I10" s="1">
-        <v>1725.6247</v>
+        <v>1722.1681</v>
       </c>
       <c r="J10" s="1">
-        <v>77080.3365</v>
+        <v>76774.4901</v>
       </c>
       <c r="K10" s="1">
-        <v>80697.9166</v>
+        <v>80696.51949999999</v>
       </c>
       <c r="L10" s="1">
-        <v>13.2903</v>
+        <v>13.3169</v>
       </c>
       <c r="M10" s="1">
         <v>0</v>
@@ -1157,10 +1157,10 @@
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-10431.4062</v>
+        <v>-10430.542</v>
       </c>
       <c r="Q10" s="3">
-        <v>0.0115</v>
+        <v>0.0109</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1171,46 +1171,46 @@
         <v>12.3976</v>
       </c>
       <c r="C11" s="1">
-        <v>12.3976</v>
+        <v>12.3728</v>
       </c>
       <c r="D11" s="1">
-        <v>12.3976</v>
+        <v>12.4224</v>
       </c>
       <c r="E11" s="1">
-        <v>6912.4935</v>
+        <v>6898.4842</v>
       </c>
       <c r="F11" s="1">
-        <v>841.4053</v>
+        <v>839.6559</v>
       </c>
       <c r="H11" s="1">
-        <v>85698.3293</v>
+        <v>85353.5653</v>
       </c>
       <c r="I11" s="1">
-        <v>1294.2185</v>
+        <v>1291.6261</v>
       </c>
       <c r="J11" s="1">
-        <v>86992.5478</v>
+        <v>86645.1914</v>
       </c>
       <c r="K11" s="1">
-        <v>91129.32279999999</v>
+        <v>91127.0616</v>
       </c>
       <c r="L11" s="1">
-        <v>13.1833</v>
+        <v>13.2097</v>
       </c>
       <c r="M11" s="1">
         <v>0.5</v>
       </c>
       <c r="N11" s="1">
-        <v>2732.3772</v>
+        <v>2726.8616</v>
       </c>
       <c r="O11" s="1">
         <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>-7699.029</v>
+        <v>-7703.6804</v>
       </c>
       <c r="Q11" s="3">
-        <v>-0.001</v>
+        <v>-0.0015</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1221,31 +1221,31 @@
         <v>12.9013</v>
       </c>
       <c r="C12" s="1">
-        <v>12.9013</v>
+        <v>12.8755</v>
       </c>
       <c r="D12" s="1">
-        <v>12.9014</v>
+        <v>12.9272</v>
       </c>
       <c r="E12" s="1">
-        <v>7753.8988</v>
+        <v>7738.1401</v>
       </c>
       <c r="F12" s="1">
-        <v>914.443</v>
+        <v>912.3378</v>
       </c>
       <c r="H12" s="1">
-        <v>100035.3743</v>
+        <v>99632.4234</v>
       </c>
       <c r="I12" s="1">
-        <v>3595.1895</v>
+        <v>3587.9457</v>
       </c>
       <c r="J12" s="1">
-        <v>103630.5638</v>
+        <v>103220.3692</v>
       </c>
       <c r="K12" s="1">
-        <v>101560.7289</v>
+        <v>101557.6036</v>
       </c>
       <c r="L12" s="1">
-        <v>13.098</v>
+        <v>13.1243</v>
       </c>
       <c r="M12" s="1">
         <v>0</v>
@@ -1257,10 +1257,10 @@
         <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>-11797.5947</v>
+        <v>-11793.9729</v>
       </c>
       <c r="Q12" s="3">
-        <v>0.0684</v>
+        <v>0.068</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1271,31 +1271,31 @@
         <v>13.3527</v>
       </c>
       <c r="C13" s="1">
-        <v>13.3527</v>
+        <v>13.326</v>
       </c>
       <c r="D13" s="1">
-        <v>13.3527</v>
+        <v>13.3795</v>
       </c>
       <c r="E13" s="1">
-        <v>8668.3418</v>
+        <v>8650.4779</v>
       </c>
       <c r="F13" s="1">
-        <v>883.5363</v>
+        <v>881.4958</v>
       </c>
       <c r="H13" s="1">
-        <v>115745.7671</v>
+        <v>115276.2687</v>
       </c>
       <c r="I13" s="1">
-        <v>1797.5947</v>
+        <v>1793.9729</v>
       </c>
       <c r="J13" s="1">
-        <v>117543.3618</v>
+        <v>117070.2416</v>
       </c>
       <c r="K13" s="1">
-        <v>113358.3237</v>
+        <v>113351.5765</v>
       </c>
       <c r="L13" s="1">
-        <v>13.0773</v>
+        <v>13.1035</v>
       </c>
       <c r="M13" s="1">
         <v>0</v>
@@ -1307,10 +1307,10 @@
         <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>-11797.5947</v>
+        <v>-11793.9729</v>
       </c>
       <c r="Q13" s="3">
-        <v>0.0344</v>
+        <v>0.034</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1321,46 +1321,46 @@
         <v>13.8804</v>
       </c>
       <c r="C14" s="1">
-        <v>13.8804</v>
+        <v>13.8526</v>
       </c>
       <c r="D14" s="1">
-        <v>13.8804</v>
+        <v>13.9082</v>
       </c>
       <c r="E14" s="1">
-        <v>9551.878000000001</v>
+        <v>9531.9737</v>
       </c>
       <c r="F14" s="1">
-        <v>-9551.878000000001</v>
+        <v>-9531.9737</v>
       </c>
       <c r="H14" s="1">
-        <v>132583.8878</v>
+        <v>132042.6189</v>
       </c>
       <c r="I14" s="1">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>132583.8878</v>
+        <v>132042.6189</v>
       </c>
       <c r="K14" s="1">
-        <v>125155.9184</v>
+        <v>125145.5493</v>
       </c>
       <c r="L14" s="1">
-        <v>13.1028</v>
+        <v>13.129</v>
       </c>
       <c r="M14" s="1">
         <v>0.5</v>
       </c>
       <c r="N14" s="1">
-        <v>3900.7538</v>
+        <v>3892.7151</v>
       </c>
       <c r="O14" s="1">
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>136484.6416</v>
+        <v>135935.334</v>
       </c>
       <c r="Q14" s="3">
-        <v>0.0395</v>
+        <v>0.0391</v>
       </c>
     </row>
   </sheetData>
@@ -1456,16 +1456,16 @@
         <v>12.2867</v>
       </c>
       <c r="C2" s="1">
-        <v>12.2867</v>
+        <v>12.2621</v>
       </c>
       <c r="D2" s="1">
-        <v>12.2867</v>
+        <v>12.3113</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>813.8882</v>
+        <v>812.2619</v>
       </c>
       <c r="G2" s="1">
         <v>10000</v>
@@ -1503,34 +1503,34 @@
         <v>13.0645</v>
       </c>
       <c r="C3" s="1">
-        <v>13.0645</v>
+        <v>13.0384</v>
       </c>
       <c r="D3" s="1">
-        <v>13.0645</v>
+        <v>13.0907</v>
       </c>
       <c r="E3" s="1">
-        <v>813.8882</v>
+        <v>812.2619</v>
       </c>
       <c r="F3" s="1">
-        <v>716.9779</v>
+        <v>721.6686</v>
       </c>
       <c r="G3" s="1">
         <v>20000</v>
       </c>
       <c r="H3" s="1">
-        <v>10633.0422</v>
+        <v>10590.5956</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>10633.0422</v>
+        <v>10590.5956</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>12.2867</v>
+        <v>12.3113</v>
       </c>
       <c r="M3" s="1">
         <v>0</v>
@@ -1542,10 +1542,10 @@
         <v>10000</v>
       </c>
       <c r="P3" s="1">
-        <v>-9366.9578</v>
+        <v>-9447.1476</v>
       </c>
       <c r="Q3" s="3">
-        <v>0.0633</v>
+        <v>0.0591</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -1556,34 +1556,34 @@
         <v>13.8083</v>
       </c>
       <c r="C4" s="1">
-        <v>13.8083</v>
+        <v>13.7807</v>
       </c>
       <c r="D4" s="1">
-        <v>13.8083</v>
+        <v>13.836</v>
       </c>
       <c r="E4" s="1">
-        <v>1530.8661</v>
+        <v>1533.9305</v>
       </c>
       <c r="F4" s="1">
-        <v>641.7402</v>
+        <v>643.0271</v>
       </c>
       <c r="G4" s="1">
         <v>30000</v>
       </c>
       <c r="H4" s="1">
-        <v>21138.6582</v>
+        <v>21138.6366</v>
       </c>
       <c r="I4" s="1">
-        <v>633.0422</v>
+        <v>552.8524</v>
       </c>
       <c r="J4" s="1">
-        <v>21771.7004</v>
+        <v>21691.489</v>
       </c>
       <c r="K4" s="1">
-        <v>19366.9578</v>
+        <v>19447.1476</v>
       </c>
       <c r="L4" s="1">
-        <v>12.651</v>
+        <v>12.678</v>
       </c>
       <c r="M4" s="1">
         <v>0</v>
@@ -1595,10 +1595,10 @@
         <v>10000</v>
       </c>
       <c r="P4" s="1">
-        <v>-8861.3418</v>
+        <v>-8896.9228</v>
       </c>
       <c r="Q4" s="3">
-        <v>0.0552</v>
+        <v>0.0535</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -1609,49 +1609,49 @@
         <v>13.5636</v>
       </c>
       <c r="C5" s="1">
-        <v>13.5636</v>
+        <v>13.5365</v>
       </c>
       <c r="D5" s="1">
-        <v>13.5636</v>
+        <v>13.5908</v>
       </c>
       <c r="E5" s="1">
-        <v>2172.6063</v>
+        <v>2176.9576</v>
       </c>
       <c r="F5" s="1">
-        <v>776.4632</v>
+        <v>778.016</v>
       </c>
       <c r="G5" s="1">
         <v>40000</v>
       </c>
       <c r="H5" s="1">
-        <v>29468.3632</v>
+        <v>29468.3869</v>
       </c>
       <c r="I5" s="1">
-        <v>1771.7004</v>
+        <v>1655.9296</v>
       </c>
       <c r="J5" s="1">
-        <v>31240.0637</v>
+        <v>31124.3166</v>
       </c>
       <c r="K5" s="1">
-        <v>28228.2996</v>
+        <v>28344.0704</v>
       </c>
       <c r="L5" s="1">
-        <v>12.9928</v>
+        <v>13.02</v>
       </c>
       <c r="M5" s="1">
         <v>0.5</v>
       </c>
       <c r="N5" s="1">
-        <v>688.8896999999999</v>
+        <v>690.2687</v>
       </c>
       <c r="O5" s="1">
         <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>-9842.746999999999</v>
+        <v>-9883.5906</v>
       </c>
       <c r="Q5" s="3">
-        <v>-0.0167</v>
+        <v>-0.0179</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -1662,34 +1662,34 @@
         <v>13.1788</v>
       </c>
       <c r="C6" s="1">
-        <v>13.1788</v>
+        <v>13.1524</v>
       </c>
       <c r="D6" s="1">
-        <v>13.1788</v>
+        <v>13.2052</v>
       </c>
       <c r="E6" s="1">
-        <v>2949.0696</v>
+        <v>2954.9736</v>
       </c>
       <c r="F6" s="1">
-        <v>844.9026</v>
+        <v>846.614</v>
       </c>
       <c r="G6" s="1">
         <v>50000</v>
       </c>
       <c r="H6" s="1">
-        <v>38865.198</v>
+        <v>38864.9946</v>
       </c>
       <c r="I6" s="1">
-        <v>1928.9534</v>
+        <v>1772.339</v>
       </c>
       <c r="J6" s="1">
-        <v>40794.1514</v>
+        <v>40637.3337</v>
       </c>
       <c r="K6" s="1">
-        <v>38759.9363</v>
+        <v>38917.9297</v>
       </c>
       <c r="L6" s="1">
-        <v>13.1431</v>
+        <v>13.1703</v>
       </c>
       <c r="M6" s="1">
         <v>0</v>
@@ -1701,10 +1701,10 @@
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-11134.802</v>
+        <v>-11179.7066</v>
       </c>
       <c r="Q6" s="3">
-        <v>-0.0108</v>
+        <v>-0.0118</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1715,34 +1715,34 @@
         <v>14.5668</v>
       </c>
       <c r="C7" s="1">
-        <v>14.5668</v>
+        <v>14.5377</v>
       </c>
       <c r="D7" s="1">
-        <v>14.5668</v>
+        <v>14.596</v>
       </c>
       <c r="E7" s="1">
-        <v>3793.9721</v>
+        <v>3801.5875</v>
       </c>
       <c r="F7" s="1">
-        <v>324.9833</v>
+        <v>325.6128</v>
       </c>
       <c r="G7" s="1">
         <v>60000</v>
       </c>
       <c r="H7" s="1">
-        <v>55266.0333</v>
+        <v>55266.3392</v>
       </c>
       <c r="I7" s="1">
-        <v>794.1514</v>
+        <v>592.6325000000001</v>
       </c>
       <c r="J7" s="1">
-        <v>56060.1848</v>
+        <v>55858.9717</v>
       </c>
       <c r="K7" s="1">
-        <v>49894.7383</v>
+        <v>50097.6363</v>
       </c>
       <c r="L7" s="1">
-        <v>13.1511</v>
+        <v>13.1781</v>
       </c>
       <c r="M7" s="1">
         <v>0</v>
@@ -1754,10 +1754,10 @@
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-4733.9667</v>
+        <v>-4752.644</v>
       </c>
       <c r="Q7" s="3">
-        <v>0.1037</v>
+        <v>0.1031</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1768,49 +1768,49 @@
         <v>13.962</v>
       </c>
       <c r="C8" s="1">
-        <v>13.962</v>
+        <v>13.9341</v>
       </c>
       <c r="D8" s="1">
-        <v>13.962</v>
+        <v>13.99</v>
       </c>
       <c r="E8" s="1">
-        <v>4118.9554</v>
+        <v>4127.2003</v>
       </c>
       <c r="F8" s="1">
-        <v>894.6529</v>
+        <v>896.4467</v>
       </c>
       <c r="G8" s="1">
         <v>70000</v>
       </c>
       <c r="H8" s="1">
-        <v>57508.8558</v>
+        <v>57508.8219</v>
       </c>
       <c r="I8" s="1">
-        <v>6060.1848</v>
+        <v>5839.9885</v>
       </c>
       <c r="J8" s="1">
-        <v>63569.0405</v>
+        <v>63348.8103</v>
       </c>
       <c r="K8" s="1">
-        <v>54628.705</v>
+        <v>54850.2803</v>
       </c>
       <c r="L8" s="1">
-        <v>13.2628</v>
+        <v>13.2899</v>
       </c>
       <c r="M8" s="1">
         <v>0.5</v>
       </c>
       <c r="N8" s="1">
-        <v>1707.2875</v>
+        <v>1710.7144</v>
       </c>
       <c r="O8" s="1">
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-10783.8568</v>
+        <v>-10830.5751</v>
       </c>
       <c r="Q8" s="3">
-        <v>-0.0377</v>
+        <v>-0.0381</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1821,34 +1821,34 @@
         <v>12.2659</v>
       </c>
       <c r="C9" s="1">
-        <v>12.2659</v>
+        <v>12.2414</v>
       </c>
       <c r="D9" s="1">
-        <v>12.2659</v>
+        <v>12.2905</v>
       </c>
       <c r="E9" s="1">
-        <v>5013.6084</v>
+        <v>5023.647</v>
       </c>
       <c r="F9" s="1">
-        <v>1245.4307</v>
+        <v>1221.2207</v>
       </c>
       <c r="G9" s="1">
         <v>80000</v>
       </c>
       <c r="H9" s="1">
-        <v>61496.4189</v>
+        <v>61496.4727</v>
       </c>
       <c r="I9" s="1">
-        <v>5276.328</v>
+        <v>5009.4134</v>
       </c>
       <c r="J9" s="1">
-        <v>66772.74679999999</v>
+        <v>66505.8861</v>
       </c>
       <c r="K9" s="1">
-        <v>67119.8492</v>
+        <v>67391.5698</v>
       </c>
       <c r="L9" s="1">
-        <v>13.3875</v>
+        <v>13.4149</v>
       </c>
       <c r="M9" s="1">
         <v>0</v>
@@ -1860,10 +1860,10 @@
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-15276.328</v>
+        <v>-15009.4134</v>
       </c>
       <c r="Q9" s="3">
-        <v>-0.0924</v>
+        <v>-0.09329999999999999</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1874,34 +1874,34 @@
         <v>12.4103</v>
       </c>
       <c r="C10" s="1">
-        <v>12.4103</v>
+        <v>12.3855</v>
       </c>
       <c r="D10" s="1">
-        <v>12.4103</v>
+        <v>12.4352</v>
       </c>
       <c r="E10" s="1">
-        <v>6259.039</v>
+        <v>6244.8678</v>
       </c>
       <c r="F10" s="1">
-        <v>805.7823</v>
+        <v>804.1688</v>
       </c>
       <c r="G10" s="1">
         <v>90000</v>
       </c>
       <c r="H10" s="1">
-        <v>77676.5521</v>
+        <v>77345.80959999999</v>
       </c>
       <c r="I10" s="1">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J10" s="1">
-        <v>77676.5521</v>
+        <v>77345.80959999999</v>
       </c>
       <c r="K10" s="1">
-        <v>82396.17720000001</v>
+        <v>82400.9831</v>
       </c>
       <c r="L10" s="1">
-        <v>13.1643</v>
+        <v>13.195</v>
       </c>
       <c r="M10" s="1">
         <v>0</v>
@@ -1916,7 +1916,7 @@
         <v>-10000</v>
       </c>
       <c r="Q10" s="3">
-        <v>0.0118</v>
+        <v>0.011</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1927,49 +1927,49 @@
         <v>12.3976</v>
       </c>
       <c r="C11" s="1">
-        <v>12.3976</v>
+        <v>12.3728</v>
       </c>
       <c r="D11" s="1">
-        <v>12.3976</v>
+        <v>12.4224</v>
       </c>
       <c r="E11" s="1">
-        <v>7064.8213</v>
+        <v>7049.0366</v>
       </c>
       <c r="F11" s="1">
-        <v>806.6077</v>
+        <v>804.9974</v>
       </c>
       <c r="G11" s="1">
         <v>100000</v>
       </c>
       <c r="H11" s="1">
-        <v>87586.8288</v>
+        <v>87216.3196</v>
       </c>
       <c r="I11" s="1">
         <v>0</v>
       </c>
       <c r="J11" s="1">
-        <v>87586.8288</v>
+        <v>87216.3196</v>
       </c>
       <c r="K11" s="1">
-        <v>92396.17720000001</v>
+        <v>92400.9831</v>
       </c>
       <c r="L11" s="1">
-        <v>13.0783</v>
+        <v>13.1083</v>
       </c>
       <c r="M11" s="1">
         <v>0.5</v>
       </c>
       <c r="N11" s="1">
-        <v>2816.5676</v>
+        <v>2810.1905</v>
       </c>
       <c r="O11" s="1">
         <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>-7183.4324</v>
+        <v>-7189.8095</v>
       </c>
       <c r="Q11" s="3">
-        <v>-0.001</v>
+        <v>-0.0015</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1980,34 +1980,34 @@
         <v>12.9013</v>
       </c>
       <c r="C12" s="1">
-        <v>12.9013</v>
+        <v>12.8755</v>
       </c>
       <c r="D12" s="1">
-        <v>12.9014</v>
+        <v>12.9272</v>
       </c>
       <c r="E12" s="1">
-        <v>7871.4291</v>
+        <v>7854.034</v>
       </c>
       <c r="F12" s="1">
-        <v>654.8434999999999</v>
+        <v>689.3236000000001</v>
       </c>
       <c r="G12" s="1">
         <v>110000</v>
       </c>
       <c r="H12" s="1">
-        <v>101551.6676</v>
+        <v>101124.6146</v>
       </c>
       <c r="I12" s="1">
-        <v>2816.5676</v>
+        <v>2810.1905</v>
       </c>
       <c r="J12" s="1">
-        <v>104368.2352</v>
+        <v>103934.8051</v>
       </c>
       <c r="K12" s="1">
-        <v>102396.1772</v>
+        <v>102400.9831</v>
       </c>
       <c r="L12" s="1">
-        <v>13.0086</v>
+        <v>13.038</v>
       </c>
       <c r="M12" s="1">
         <v>0</v>
@@ -2019,10 +2019,10 @@
         <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>-8448.397800000001</v>
+        <v>-8911.0234</v>
       </c>
       <c r="Q12" s="3">
-        <v>0.06950000000000001</v>
+        <v>0.06909999999999999</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -2033,34 +2033,34 @@
         <v>13.3527</v>
       </c>
       <c r="C13" s="1">
-        <v>13.3527</v>
+        <v>13.326</v>
       </c>
       <c r="D13" s="1">
-        <v>13.3527</v>
+        <v>13.3795</v>
       </c>
       <c r="E13" s="1">
-        <v>8526.272499999999</v>
+        <v>8543.3575</v>
       </c>
       <c r="F13" s="1">
-        <v>460.6739</v>
+        <v>461.5952</v>
       </c>
       <c r="G13" s="1">
         <v>120000</v>
       </c>
       <c r="H13" s="1">
-        <v>113848.7594</v>
+        <v>113848.7826</v>
       </c>
       <c r="I13" s="1">
-        <v>4368.1697</v>
+        <v>3899.1671</v>
       </c>
       <c r="J13" s="1">
-        <v>118216.9291</v>
+        <v>117747.9497</v>
       </c>
       <c r="K13" s="1">
-        <v>110844.575</v>
+        <v>111312.0065</v>
       </c>
       <c r="L13" s="1">
-        <v>13.0004</v>
+        <v>13.0291</v>
       </c>
       <c r="M13" s="1">
         <v>0</v>
@@ -2072,10 +2072,10 @@
         <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>-6151.2406</v>
+        <v>-6175.9128</v>
       </c>
       <c r="Q13" s="3">
-        <v>0.0337</v>
+        <v>0.0335</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -2086,49 +2086,49 @@
         <v>13.8804</v>
       </c>
       <c r="C14" s="1">
-        <v>13.8804</v>
+        <v>13.8526</v>
       </c>
       <c r="D14" s="1">
-        <v>13.8804</v>
+        <v>13.9082</v>
       </c>
       <c r="E14" s="1">
-        <v>8986.9465</v>
+        <v>9004.9527</v>
       </c>
       <c r="F14" s="1">
-        <v>-8986.9465</v>
+        <v>-9004.9527</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>124742.4116</v>
+        <v>124742.0081</v>
       </c>
       <c r="I14" s="1">
-        <v>8216.929099999999</v>
+        <v>7723.2543</v>
       </c>
       <c r="J14" s="1">
-        <v>132959.3408</v>
+        <v>132465.2624</v>
       </c>
       <c r="K14" s="1">
-        <v>116995.8156</v>
+        <v>117487.9193</v>
       </c>
       <c r="L14" s="1">
-        <v>13.0184</v>
+        <v>13.047</v>
       </c>
       <c r="M14" s="1">
         <v>0.5</v>
       </c>
       <c r="N14" s="1">
-        <v>3836.8226</v>
+        <v>3844.5109</v>
       </c>
       <c r="O14" s="1">
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>128579.2343</v>
+        <v>128586.519</v>
       </c>
       <c r="Q14" s="3">
-        <v>0.037</v>
+        <v>0.0369</v>
       </c>
     </row>
   </sheetData>
@@ -2224,16 +2224,16 @@
         <v>12.2867</v>
       </c>
       <c r="C2" s="1">
-        <v>12.2867</v>
+        <v>12.2621</v>
       </c>
       <c r="D2" s="1">
-        <v>12.2867</v>
+        <v>12.3113</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>813.8882</v>
+        <v>812.2619</v>
       </c>
       <c r="G2" s="1">
         <v>10000</v>
@@ -2271,34 +2271,34 @@
         <v>13.0645</v>
       </c>
       <c r="C3" s="1">
-        <v>13.0645</v>
+        <v>13.0384</v>
       </c>
       <c r="D3" s="1">
-        <v>13.0645</v>
+        <v>13.0907</v>
       </c>
       <c r="E3" s="1">
-        <v>813.8882</v>
+        <v>812.2619</v>
       </c>
       <c r="F3" s="1">
-        <v>720.8051</v>
+        <v>725.5035</v>
       </c>
       <c r="G3" s="1">
         <v>20050</v>
       </c>
       <c r="H3" s="1">
-        <v>10633.0422</v>
+        <v>10590.5956</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>10633.0422</v>
+        <v>10590.5956</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>12.2867</v>
+        <v>12.3113</v>
       </c>
       <c r="M3" s="1">
         <v>0</v>
@@ -2310,10 +2310,10 @@
         <v>10000</v>
       </c>
       <c r="P3" s="1">
-        <v>-9416.9578</v>
+        <v>-9497.3482</v>
       </c>
       <c r="Q3" s="3">
-        <v>0.0633</v>
+        <v>0.0591</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -2324,34 +2324,34 @@
         <v>13.8083</v>
       </c>
       <c r="C4" s="1">
-        <v>13.8083</v>
+        <v>13.7807</v>
       </c>
       <c r="D4" s="1">
-        <v>13.8083</v>
+        <v>13.836</v>
       </c>
       <c r="E4" s="1">
-        <v>1534.6933</v>
+        <v>1537.7654</v>
       </c>
       <c r="F4" s="1">
-        <v>648.7942</v>
+        <v>650.0952</v>
       </c>
       <c r="G4" s="1">
         <v>30150.25</v>
       </c>
       <c r="H4" s="1">
-        <v>21191.5048</v>
+        <v>21191.4832</v>
       </c>
       <c r="I4" s="1">
-        <v>583.0422</v>
+        <v>502.6518</v>
       </c>
       <c r="J4" s="1">
-        <v>21774.5471</v>
+        <v>21694.135</v>
       </c>
       <c r="K4" s="1">
-        <v>19416.9578</v>
+        <v>19497.3482</v>
       </c>
       <c r="L4" s="1">
-        <v>12.652</v>
+        <v>12.679</v>
       </c>
       <c r="M4" s="1">
         <v>0</v>
@@ -2363,10 +2363,10 @@
         <v>10000</v>
       </c>
       <c r="P4" s="1">
-        <v>-8958.745199999999</v>
+        <v>-8994.717000000001</v>
       </c>
       <c r="Q4" s="3">
-        <v>0.0553</v>
+        <v>0.0536</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -2377,49 +2377,49 @@
         <v>13.5636</v>
       </c>
       <c r="C5" s="1">
-        <v>13.5636</v>
+        <v>13.5365</v>
       </c>
       <c r="D5" s="1">
-        <v>13.5636</v>
+        <v>13.5908</v>
       </c>
       <c r="E5" s="1">
-        <v>2183.4875</v>
+        <v>2187.8606</v>
       </c>
       <c r="F5" s="1">
-        <v>787.7739</v>
+        <v>789.3493</v>
       </c>
       <c r="G5" s="1">
         <v>40301.0012</v>
       </c>
       <c r="H5" s="1">
-        <v>29615.9506</v>
+        <v>29615.9745</v>
       </c>
       <c r="I5" s="1">
-        <v>1624.2971</v>
+        <v>1507.9348</v>
       </c>
       <c r="J5" s="1">
-        <v>31240.2477</v>
+        <v>31123.9092</v>
       </c>
       <c r="K5" s="1">
-        <v>28375.7029</v>
+        <v>28492.0652</v>
       </c>
       <c r="L5" s="1">
-        <v>12.9956</v>
+        <v>13.0228</v>
       </c>
       <c r="M5" s="1">
         <v>0.5</v>
       </c>
       <c r="N5" s="1">
-        <v>690.612</v>
+        <v>691.9944</v>
       </c>
       <c r="O5" s="1">
         <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>-9994.438700000001</v>
+        <v>-10035.894</v>
       </c>
       <c r="Q5" s="3">
-        <v>-0.0168</v>
+        <v>-0.018</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -2430,34 +2430,34 @@
         <v>13.1788</v>
       </c>
       <c r="C6" s="1">
-        <v>13.1788</v>
+        <v>13.1524</v>
       </c>
       <c r="D6" s="1">
-        <v>13.1788</v>
+        <v>13.2052</v>
       </c>
       <c r="E6" s="1">
-        <v>2971.2614</v>
+        <v>2977.2099</v>
       </c>
       <c r="F6" s="1">
-        <v>860.8406</v>
+        <v>862.5841</v>
       </c>
       <c r="G6" s="1">
         <v>50502.5063</v>
       </c>
       <c r="H6" s="1">
-        <v>39157.6599</v>
+        <v>39157.4549</v>
       </c>
       <c r="I6" s="1">
-        <v>1629.8584</v>
+        <v>1472.0407</v>
       </c>
       <c r="J6" s="1">
-        <v>40787.5183</v>
+        <v>40629.4957</v>
       </c>
       <c r="K6" s="1">
-        <v>39060.7536</v>
+        <v>39219.9537</v>
       </c>
       <c r="L6" s="1">
-        <v>13.1462</v>
+        <v>13.1734</v>
       </c>
       <c r="M6" s="1">
         <v>0</v>
@@ -2469,10 +2469,10 @@
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-11344.8464</v>
+        <v>-11390.5958</v>
       </c>
       <c r="Q6" s="3">
-        <v>-0.011</v>
+        <v>-0.012</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -2483,34 +2483,34 @@
         <v>14.5668</v>
       </c>
       <c r="C7" s="1">
-        <v>14.5668</v>
+        <v>14.5377</v>
       </c>
       <c r="D7" s="1">
-        <v>14.5668</v>
+        <v>14.596</v>
       </c>
       <c r="E7" s="1">
-        <v>3832.102</v>
+        <v>3839.794</v>
       </c>
       <c r="F7" s="1">
-        <v>338.6849</v>
+        <v>339.3416</v>
       </c>
       <c r="G7" s="1">
         <v>60755.0188</v>
       </c>
       <c r="H7" s="1">
-        <v>55821.4639</v>
+        <v>55821.7728</v>
       </c>
       <c r="I7" s="1">
-        <v>285.012</v>
+        <v>81.44499999999999</v>
       </c>
       <c r="J7" s="1">
-        <v>56106.4759</v>
+        <v>55903.2178</v>
       </c>
       <c r="K7" s="1">
-        <v>50405.6</v>
+        <v>50610.5494</v>
       </c>
       <c r="L7" s="1">
-        <v>13.1535</v>
+        <v>13.1805</v>
       </c>
       <c r="M7" s="1">
         <v>0</v>
@@ -2522,10 +2522,10 @@
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-4933.5549</v>
+        <v>-4953.0296</v>
       </c>
       <c r="Q7" s="3">
-        <v>0.1047</v>
+        <v>0.1042</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -2536,49 +2536,49 @@
         <v>13.962</v>
       </c>
       <c r="C8" s="1">
-        <v>13.962</v>
+        <v>13.9341</v>
       </c>
       <c r="D8" s="1">
-        <v>13.962</v>
+        <v>13.99</v>
       </c>
       <c r="E8" s="1">
-        <v>4170.7869</v>
+        <v>4179.1355</v>
       </c>
       <c r="F8" s="1">
-        <v>918.6554</v>
+        <v>920.4973</v>
       </c>
       <c r="G8" s="1">
         <v>71058.7939</v>
       </c>
       <c r="H8" s="1">
-        <v>58232.5269</v>
+        <v>58232.4926</v>
       </c>
       <c r="I8" s="1">
-        <v>5351.4571</v>
+        <v>5128.4154</v>
       </c>
       <c r="J8" s="1">
-        <v>63583.984</v>
+        <v>63360.908</v>
       </c>
       <c r="K8" s="1">
-        <v>55339.1549</v>
+        <v>55563.579</v>
       </c>
       <c r="L8" s="1">
-        <v>13.2683</v>
+        <v>13.2955</v>
       </c>
       <c r="M8" s="1">
         <v>0.5</v>
       </c>
       <c r="N8" s="1">
-        <v>1724.4459</v>
+        <v>1727.9073</v>
       </c>
       <c r="O8" s="1">
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-11101.8211</v>
+        <v>-11149.8498</v>
       </c>
       <c r="Q8" s="3">
-        <v>-0.0382</v>
+        <v>-0.0386</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -2589,34 +2589,34 @@
         <v>12.2659</v>
       </c>
       <c r="C9" s="1">
-        <v>12.2659</v>
+        <v>12.2414</v>
       </c>
       <c r="D9" s="1">
-        <v>12.2659</v>
+        <v>12.2905</v>
       </c>
       <c r="E9" s="1">
-        <v>5089.4423</v>
+        <v>5099.6328</v>
       </c>
       <c r="F9" s="1">
-        <v>1161.7277</v>
+        <v>1137.3472</v>
       </c>
       <c r="G9" s="1">
         <v>81414.0879</v>
       </c>
       <c r="H9" s="1">
-        <v>62426.5907</v>
+        <v>62426.6454</v>
       </c>
       <c r="I9" s="1">
-        <v>4249.636</v>
+        <v>3978.5656</v>
       </c>
       <c r="J9" s="1">
-        <v>66676.2267</v>
+        <v>66405.211</v>
       </c>
       <c r="K9" s="1">
-        <v>68165.4219</v>
+        <v>68441.3361</v>
       </c>
       <c r="L9" s="1">
-        <v>13.3935</v>
+        <v>13.4208</v>
       </c>
       <c r="M9" s="1">
         <v>0</v>
@@ -2628,10 +2628,10 @@
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-14249.636</v>
+        <v>-13978.5656</v>
       </c>
       <c r="Q9" s="3">
-        <v>-0.0939</v>
+        <v>-0.0948</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -2642,34 +2642,34 @@
         <v>12.4103</v>
       </c>
       <c r="C10" s="1">
-        <v>12.4103</v>
+        <v>12.3855</v>
       </c>
       <c r="D10" s="1">
-        <v>12.4103</v>
+        <v>12.4352</v>
       </c>
       <c r="E10" s="1">
-        <v>6251.1701</v>
+        <v>6236.98</v>
       </c>
       <c r="F10" s="1">
-        <v>805.7823</v>
+        <v>804.1688</v>
       </c>
       <c r="G10" s="1">
         <v>91821.1583</v>
       </c>
       <c r="H10" s="1">
-        <v>77578.89569999999</v>
+        <v>77248.1161</v>
       </c>
       <c r="I10" s="1">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J10" s="1">
-        <v>77578.89569999999</v>
+        <v>77248.1161</v>
       </c>
       <c r="K10" s="1">
-        <v>82415.0579</v>
+        <v>82419.9017</v>
       </c>
       <c r="L10" s="1">
-        <v>13.1839</v>
+        <v>13.2147</v>
       </c>
       <c r="M10" s="1">
         <v>0</v>
@@ -2684,7 +2684,7 @@
         <v>-10000</v>
       </c>
       <c r="Q10" s="3">
-        <v>0.0118</v>
+        <v>0.011</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -2695,49 +2695,49 @@
         <v>12.3976</v>
       </c>
       <c r="C11" s="1">
-        <v>12.3976</v>
+        <v>12.3728</v>
       </c>
       <c r="D11" s="1">
-        <v>12.3976</v>
+        <v>12.4224</v>
       </c>
       <c r="E11" s="1">
-        <v>7056.9523</v>
+        <v>7041.1488</v>
       </c>
       <c r="F11" s="1">
-        <v>806.6077</v>
+        <v>804.9974</v>
       </c>
       <c r="G11" s="1">
         <v>102280.2641</v>
       </c>
       <c r="H11" s="1">
-        <v>87489.2724</v>
+        <v>87118.72629999999</v>
       </c>
       <c r="I11" s="1">
         <v>0</v>
       </c>
       <c r="J11" s="1">
-        <v>87489.2724</v>
+        <v>87118.72629999999</v>
       </c>
       <c r="K11" s="1">
-        <v>92415.0579</v>
+        <v>92419.9017</v>
       </c>
       <c r="L11" s="1">
-        <v>13.0956</v>
+        <v>13.1257</v>
       </c>
       <c r="M11" s="1">
         <v>0.5</v>
       </c>
       <c r="N11" s="1">
-        <v>2813.0265</v>
+        <v>2806.641</v>
       </c>
       <c r="O11" s="1">
         <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>-7186.9735</v>
+        <v>-7193.359</v>
       </c>
       <c r="Q11" s="3">
-        <v>-0.001</v>
+        <v>-0.0015</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -2748,34 +2748,34 @@
         <v>12.9013</v>
       </c>
       <c r="C12" s="1">
-        <v>12.9013</v>
+        <v>12.8755</v>
       </c>
       <c r="D12" s="1">
-        <v>12.9014</v>
+        <v>12.9272</v>
       </c>
       <c r="E12" s="1">
-        <v>7863.5601</v>
+        <v>7846.1463</v>
       </c>
       <c r="F12" s="1">
-        <v>879.0988</v>
+        <v>914.0312</v>
       </c>
       <c r="G12" s="1">
         <v>112791.6654</v>
       </c>
       <c r="H12" s="1">
-        <v>101450.1476</v>
+        <v>101023.0561</v>
       </c>
       <c r="I12" s="1">
-        <v>2813.0265</v>
+        <v>2806.641</v>
       </c>
       <c r="J12" s="1">
-        <v>104263.1741</v>
+        <v>103829.6971</v>
       </c>
       <c r="K12" s="1">
-        <v>102415.0579</v>
+        <v>102419.9017</v>
       </c>
       <c r="L12" s="1">
-        <v>13.024</v>
+        <v>13.0535</v>
       </c>
       <c r="M12" s="1">
         <v>0</v>
@@ -2787,10 +2787,10 @@
         <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>-11341.6057</v>
+        <v>-11815.8647</v>
       </c>
       <c r="Q12" s="3">
-        <v>0.06950000000000001</v>
+        <v>0.06909999999999999</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -2801,34 +2801,34 @@
         <v>13.3527</v>
       </c>
       <c r="C13" s="1">
-        <v>13.3527</v>
+        <v>13.326</v>
       </c>
       <c r="D13" s="1">
-        <v>13.3527</v>
+        <v>13.3795</v>
       </c>
       <c r="E13" s="1">
-        <v>8742.6589</v>
+        <v>8760.1775</v>
       </c>
       <c r="F13" s="1">
-        <v>495.5943</v>
+        <v>496.5855</v>
       </c>
       <c r="G13" s="1">
         <v>123355.6237</v>
       </c>
       <c r="H13" s="1">
-        <v>116738.1016</v>
+        <v>116738.1254</v>
       </c>
       <c r="I13" s="1">
-        <v>1471.4208</v>
+        <v>990.7763</v>
       </c>
       <c r="J13" s="1">
-        <v>118209.5224</v>
+        <v>117728.9017</v>
       </c>
       <c r="K13" s="1">
-        <v>113756.6636</v>
+        <v>114235.7664</v>
       </c>
       <c r="L13" s="1">
-        <v>13.0117</v>
+        <v>13.0403</v>
       </c>
       <c r="M13" s="1">
         <v>0</v>
@@ -2840,10 +2840,10 @@
         <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>-6617.5221</v>
+        <v>-6644.0657</v>
       </c>
       <c r="Q13" s="3">
-        <v>0.0345</v>
+        <v>0.0343</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -2854,46 +2854,46 @@
         <v>13.8804</v>
       </c>
       <c r="C14" s="1">
-        <v>13.8804</v>
+        <v>13.8526</v>
       </c>
       <c r="D14" s="1">
-        <v>13.8804</v>
+        <v>13.9082</v>
       </c>
       <c r="E14" s="1">
-        <v>9238.253199999999</v>
+        <v>9256.763000000001</v>
       </c>
       <c r="F14" s="1">
-        <v>-9238.253199999999</v>
+        <v>-9256.763000000001</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>128230.65</v>
+        <v>128230.2351</v>
       </c>
       <c r="I14" s="1">
-        <v>4853.8987</v>
+        <v>4346.7106</v>
       </c>
       <c r="J14" s="1">
-        <v>133084.5487</v>
+        <v>132576.9458</v>
       </c>
       <c r="K14" s="1">
-        <v>120374.1857</v>
+        <v>120879.8321</v>
       </c>
       <c r="L14" s="1">
-        <v>13.03</v>
+        <v>13.0585</v>
       </c>
       <c r="M14" s="1">
         <v>0.5</v>
       </c>
       <c r="N14" s="1">
-        <v>3934.1965</v>
+        <v>3942.0799</v>
       </c>
       <c r="O14" s="1">
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>132164.8465</v>
+        <v>132172.315</v>
       </c>
       <c r="Q14" s="3">
         <v>0.038</v>
@@ -2992,16 +2992,16 @@
         <v>12.2867</v>
       </c>
       <c r="C2" s="1">
-        <v>12.2867</v>
+        <v>12.2621</v>
       </c>
       <c r="D2" s="1">
-        <v>12.2867</v>
+        <v>12.3113</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>813.8882</v>
+        <v>812.2619</v>
       </c>
       <c r="G2" s="1">
         <v>10000</v>
@@ -3039,34 +3039,34 @@
         <v>13.0645</v>
       </c>
       <c r="C3" s="1">
-        <v>13.0645</v>
+        <v>13.0384</v>
       </c>
       <c r="D3" s="1">
-        <v>13.0645</v>
+        <v>13.0907</v>
       </c>
       <c r="E3" s="1">
-        <v>813.8882</v>
+        <v>812.2619</v>
       </c>
       <c r="F3" s="1">
-        <v>724.6322</v>
+        <v>729.3383</v>
       </c>
       <c r="G3" s="1">
         <v>20100</v>
       </c>
       <c r="H3" s="1">
-        <v>10633.0422</v>
+        <v>10590.5956</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>10633.0422</v>
+        <v>10590.5956</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>12.2867</v>
+        <v>12.3113</v>
       </c>
       <c r="M3" s="1">
         <v>0</v>
@@ -3078,10 +3078,10 @@
         <v>10000</v>
       </c>
       <c r="P3" s="1">
-        <v>-9466.9578</v>
+        <v>-9547.5488</v>
       </c>
       <c r="Q3" s="3">
-        <v>0.0633</v>
+        <v>0.0591</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3092,34 +3092,34 @@
         <v>13.8083</v>
       </c>
       <c r="C4" s="1">
-        <v>13.8083</v>
+        <v>13.7807</v>
       </c>
       <c r="D4" s="1">
-        <v>13.8083</v>
+        <v>13.836</v>
       </c>
       <c r="E4" s="1">
-        <v>1538.5204</v>
+        <v>1541.6002</v>
       </c>
       <c r="F4" s="1">
-        <v>655.8844</v>
+        <v>657.1996</v>
       </c>
       <c r="G4" s="1">
         <v>30301</v>
       </c>
       <c r="H4" s="1">
-        <v>21244.3515</v>
+        <v>21244.3298</v>
       </c>
       <c r="I4" s="1">
-        <v>533.0422</v>
+        <v>452.4512</v>
       </c>
       <c r="J4" s="1">
-        <v>21777.3937</v>
+        <v>21696.7811</v>
       </c>
       <c r="K4" s="1">
-        <v>19466.9578</v>
+        <v>19547.5488</v>
       </c>
       <c r="L4" s="1">
-        <v>12.653</v>
+        <v>12.68</v>
       </c>
       <c r="M4" s="1">
         <v>0</v>
@@ -3131,10 +3131,10 @@
         <v>10000</v>
       </c>
       <c r="P4" s="1">
-        <v>-9056.648499999999</v>
+        <v>-9093.013300000001</v>
       </c>
       <c r="Q4" s="3">
-        <v>0.0555</v>
+        <v>0.0537</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3145,49 +3145,49 @@
         <v>13.5636</v>
       </c>
       <c r="C5" s="1">
-        <v>13.5636</v>
+        <v>13.5365</v>
       </c>
       <c r="D5" s="1">
-        <v>13.5636</v>
+        <v>13.5908</v>
       </c>
       <c r="E5" s="1">
-        <v>2194.4048</v>
+        <v>2198.7998</v>
       </c>
       <c r="F5" s="1">
-        <v>799.1964</v>
+        <v>800.7947</v>
       </c>
       <c r="G5" s="1">
         <v>40604.01</v>
       </c>
       <c r="H5" s="1">
-        <v>29764.0291</v>
+        <v>29764.0531</v>
       </c>
       <c r="I5" s="1">
-        <v>1476.3937</v>
+        <v>1359.4379</v>
       </c>
       <c r="J5" s="1">
-        <v>31240.4229</v>
+        <v>31123.491</v>
       </c>
       <c r="K5" s="1">
-        <v>28523.6063</v>
+        <v>28640.5621</v>
       </c>
       <c r="L5" s="1">
-        <v>12.9983</v>
+        <v>13.0255</v>
       </c>
       <c r="M5" s="1">
         <v>0.5</v>
       </c>
       <c r="N5" s="1">
-        <v>692.3342</v>
+        <v>693.7201</v>
       </c>
       <c r="O5" s="1">
         <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>-10147.6467</v>
+        <v>-10189.72</v>
       </c>
       <c r="Q5" s="3">
-        <v>-0.0169</v>
+        <v>-0.0181</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3198,34 +3198,34 @@
         <v>13.1788</v>
       </c>
       <c r="C6" s="1">
-        <v>13.1788</v>
+        <v>13.1524</v>
       </c>
       <c r="D6" s="1">
-        <v>13.1788</v>
+        <v>13.2052</v>
       </c>
       <c r="E6" s="1">
-        <v>2993.6013</v>
+        <v>2999.5944</v>
       </c>
       <c r="F6" s="1">
-        <v>859.619</v>
+        <v>845.8575</v>
       </c>
       <c r="G6" s="1">
         <v>51010.0501</v>
       </c>
       <c r="H6" s="1">
-        <v>39452.0722</v>
+        <v>39451.8658</v>
       </c>
       <c r="I6" s="1">
-        <v>1328.747</v>
+        <v>1169.718</v>
       </c>
       <c r="J6" s="1">
-        <v>40780.8193</v>
+        <v>40621.5837</v>
       </c>
       <c r="K6" s="1">
-        <v>39363.5871</v>
+        <v>39524.0021</v>
       </c>
       <c r="L6" s="1">
-        <v>13.1492</v>
+        <v>13.1764</v>
       </c>
       <c r="M6" s="1">
         <v>0</v>
@@ -3237,10 +3237,10 @@
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-11328.747</v>
+        <v>-11169.718</v>
       </c>
       <c r="Q6" s="3">
-        <v>-0.0111</v>
+        <v>-0.0122</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -3251,34 +3251,34 @@
         <v>14.5668</v>
       </c>
       <c r="C7" s="1">
-        <v>14.5668</v>
+        <v>14.5377</v>
       </c>
       <c r="D7" s="1">
-        <v>14.5668</v>
+        <v>14.596</v>
       </c>
       <c r="E7" s="1">
-        <v>3853.2203</v>
+        <v>3845.452</v>
       </c>
       <c r="F7" s="1">
-        <v>370.0924</v>
+        <v>386.3144</v>
       </c>
       <c r="G7" s="1">
         <v>61520.1506</v>
       </c>
       <c r="H7" s="1">
-        <v>56129.089</v>
+        <v>55904.0271</v>
       </c>
       <c r="I7" s="1">
         <v>0</v>
       </c>
       <c r="J7" s="1">
-        <v>56129.089</v>
+        <v>55904.0271</v>
       </c>
       <c r="K7" s="1">
-        <v>50692.3342</v>
+        <v>50693.7201</v>
       </c>
       <c r="L7" s="1">
-        <v>13.1558</v>
+        <v>13.1828</v>
       </c>
       <c r="M7" s="1">
         <v>0</v>
@@ -3290,10 +3290,10 @@
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-5391.0616</v>
+        <v>-5638.6457</v>
       </c>
       <c r="Q7" s="3">
-        <v>0.1053</v>
+        <v>0.1044</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -3304,49 +3304,49 @@
         <v>13.962</v>
       </c>
       <c r="C8" s="1">
-        <v>13.962</v>
+        <v>13.9341</v>
       </c>
       <c r="D8" s="1">
-        <v>13.962</v>
+        <v>13.99</v>
       </c>
       <c r="E8" s="1">
-        <v>4223.3126</v>
+        <v>4231.7664</v>
       </c>
       <c r="F8" s="1">
-        <v>943.236</v>
+        <v>945.1271</v>
       </c>
       <c r="G8" s="1">
         <v>72135.3521</v>
       </c>
       <c r="H8" s="1">
-        <v>58965.8911</v>
+        <v>58965.8564</v>
       </c>
       <c r="I8" s="1">
-        <v>4608.9384</v>
+        <v>4361.3543</v>
       </c>
       <c r="J8" s="1">
-        <v>63574.8295</v>
+        <v>63327.2107</v>
       </c>
       <c r="K8" s="1">
-        <v>56083.3958</v>
+        <v>56332.3657</v>
       </c>
       <c r="L8" s="1">
-        <v>13.2795</v>
+        <v>13.3118</v>
       </c>
       <c r="M8" s="1">
         <v>0.5</v>
       </c>
       <c r="N8" s="1">
-        <v>1733.9491</v>
+        <v>1730.4534</v>
       </c>
       <c r="O8" s="1">
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-11435.5119</v>
+        <v>-11491.8749</v>
       </c>
       <c r="Q8" s="3">
-        <v>-0.0386</v>
+        <v>-0.0391</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -3357,34 +3357,34 @@
         <v>12.2659</v>
       </c>
       <c r="C9" s="1">
-        <v>12.2659</v>
+        <v>12.2414</v>
       </c>
       <c r="D9" s="1">
-        <v>12.2659</v>
+        <v>12.2905</v>
       </c>
       <c r="E9" s="1">
-        <v>5166.5486</v>
+        <v>5176.8935</v>
       </c>
       <c r="F9" s="1">
-        <v>1073.9878</v>
+        <v>1047.1079</v>
       </c>
       <c r="G9" s="1">
         <v>82856.7056</v>
       </c>
       <c r="H9" s="1">
-        <v>63372.369</v>
+        <v>63372.4244</v>
       </c>
       <c r="I9" s="1">
-        <v>3173.4265</v>
+        <v>2869.4794</v>
       </c>
       <c r="J9" s="1">
-        <v>66545.79549999999</v>
+        <v>66241.9038</v>
       </c>
       <c r="K9" s="1">
-        <v>69252.85679999999</v>
+        <v>69554.69409999999</v>
       </c>
       <c r="L9" s="1">
-        <v>13.4041</v>
+        <v>13.4356</v>
       </c>
       <c r="M9" s="1">
         <v>0</v>
@@ -3396,10 +3396,10 @@
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-13173.4265</v>
+        <v>-12869.4794</v>
       </c>
       <c r="Q9" s="3">
-        <v>-0.0955</v>
+        <v>-0.09660000000000001</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -3410,34 +3410,34 @@
         <v>12.4103</v>
       </c>
       <c r="C10" s="1">
-        <v>12.4103</v>
+        <v>12.3855</v>
       </c>
       <c r="D10" s="1">
-        <v>12.4103</v>
+        <v>12.4352</v>
       </c>
       <c r="E10" s="1">
-        <v>6240.5364</v>
+        <v>6224.0014</v>
       </c>
       <c r="F10" s="1">
-        <v>805.7823</v>
+        <v>804.1688</v>
       </c>
       <c r="G10" s="1">
         <v>93685.2727</v>
       </c>
       <c r="H10" s="1">
-        <v>77446.929</v>
+        <v>77087.3694</v>
       </c>
       <c r="I10" s="1">
         <v>0</v>
       </c>
       <c r="J10" s="1">
-        <v>77446.929</v>
+        <v>77087.3694</v>
       </c>
       <c r="K10" s="1">
-        <v>82426.2833</v>
+        <v>82424.1735</v>
       </c>
       <c r="L10" s="1">
-        <v>13.2082</v>
+        <v>13.243</v>
       </c>
       <c r="M10" s="1">
         <v>0</v>
@@ -3452,7 +3452,7 @@
         <v>-10000</v>
       </c>
       <c r="Q10" s="3">
-        <v>0.0118</v>
+        <v>0.0111</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -3463,49 +3463,49 @@
         <v>12.3976</v>
       </c>
       <c r="C11" s="1">
-        <v>12.3976</v>
+        <v>12.3728</v>
       </c>
       <c r="D11" s="1">
-        <v>12.3976</v>
+        <v>12.4224</v>
       </c>
       <c r="E11" s="1">
-        <v>7046.3187</v>
+        <v>7028.1702</v>
       </c>
       <c r="F11" s="1">
-        <v>806.6077</v>
+        <v>804.9974</v>
       </c>
       <c r="G11" s="1">
         <v>104622.1254</v>
       </c>
       <c r="H11" s="1">
-        <v>87357.44070000001</v>
+        <v>86958.14449999999</v>
       </c>
       <c r="I11" s="1">
         <v>0</v>
       </c>
       <c r="J11" s="1">
-        <v>87357.44070000001</v>
+        <v>86958.14449999999</v>
       </c>
       <c r="K11" s="1">
-        <v>92426.2833</v>
+        <v>92424.1735</v>
       </c>
       <c r="L11" s="1">
-        <v>13.117</v>
+        <v>13.1505</v>
       </c>
       <c r="M11" s="1">
         <v>0.5</v>
       </c>
       <c r="N11" s="1">
-        <v>2808.2414</v>
+        <v>2800.8006</v>
       </c>
       <c r="O11" s="1">
         <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>-7191.7586</v>
+        <v>-7199.1994</v>
       </c>
       <c r="Q11" s="3">
-        <v>-0.001</v>
+        <v>-0.0015</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -3516,34 +3516,34 @@
         <v>12.9013</v>
       </c>
       <c r="C12" s="1">
-        <v>12.9013</v>
+        <v>12.8755</v>
       </c>
       <c r="D12" s="1">
-        <v>12.9014</v>
+        <v>12.9272</v>
       </c>
       <c r="E12" s="1">
-        <v>7852.9264</v>
+        <v>7833.1676</v>
       </c>
       <c r="F12" s="1">
-        <v>992.7791999999999</v>
+        <v>990.2222</v>
       </c>
       <c r="G12" s="1">
         <v>115668.3467</v>
       </c>
       <c r="H12" s="1">
-        <v>101312.9598</v>
+        <v>100855.95</v>
       </c>
       <c r="I12" s="1">
-        <v>2808.2414</v>
+        <v>2800.8006</v>
       </c>
       <c r="J12" s="1">
-        <v>104121.2011</v>
+        <v>103656.7506</v>
       </c>
       <c r="K12" s="1">
-        <v>102426.2833</v>
+        <v>102424.1735</v>
       </c>
       <c r="L12" s="1">
-        <v>13.0431</v>
+        <v>13.0757</v>
       </c>
       <c r="M12" s="1">
         <v>0</v>
@@ -3555,10 +3555,10 @@
         <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>-12808.2414</v>
+        <v>-12800.8006</v>
       </c>
       <c r="Q12" s="3">
-        <v>0.06950000000000001</v>
+        <v>0.06909999999999999</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -3569,34 +3569,34 @@
         <v>13.3527</v>
       </c>
       <c r="C13" s="1">
-        <v>13.3527</v>
+        <v>13.326</v>
       </c>
       <c r="D13" s="1">
-        <v>13.3527</v>
+        <v>13.3795</v>
       </c>
       <c r="E13" s="1">
-        <v>8845.705599999999</v>
+        <v>8823.3899</v>
       </c>
       <c r="F13" s="1">
-        <v>652.3757000000001</v>
+        <v>693.7218</v>
       </c>
       <c r="G13" s="1">
         <v>126825.0301</v>
       </c>
       <c r="H13" s="1">
-        <v>118114.0534</v>
+        <v>117580.4933</v>
       </c>
       <c r="I13" s="1">
         <v>0</v>
       </c>
       <c r="J13" s="1">
-        <v>118114.0534</v>
+        <v>117580.4933</v>
       </c>
       <c r="K13" s="1">
-        <v>115234.5247</v>
+        <v>115224.9741</v>
       </c>
       <c r="L13" s="1">
-        <v>13.0272</v>
+        <v>13.059</v>
       </c>
       <c r="M13" s="1">
         <v>0</v>
@@ -3608,10 +3608,10 @@
         <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>-8710.9768</v>
+        <v>-9281.651</v>
       </c>
       <c r="Q13" s="3">
-        <v>0.035</v>
+        <v>0.0345</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -3622,49 +3622,49 @@
         <v>13.8804</v>
       </c>
       <c r="C14" s="1">
-        <v>13.8804</v>
+        <v>13.8526</v>
       </c>
       <c r="D14" s="1">
-        <v>13.8804</v>
+        <v>13.9082</v>
       </c>
       <c r="E14" s="1">
-        <v>9498.0813</v>
+        <v>9517.111699999999</v>
       </c>
       <c r="F14" s="1">
-        <v>-9498.0813</v>
+        <v>-9517.111699999999</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>131837.1676</v>
+        <v>131836.7411</v>
       </c>
       <c r="I14" s="1">
-        <v>1289.0232</v>
+        <v>718.349</v>
       </c>
       <c r="J14" s="1">
-        <v>133126.1909</v>
+        <v>132555.0902</v>
       </c>
       <c r="K14" s="1">
-        <v>123945.5014</v>
+        <v>124506.6251</v>
       </c>
       <c r="L14" s="1">
-        <v>13.0495</v>
+        <v>13.0824</v>
       </c>
       <c r="M14" s="1">
         <v>0.5</v>
       </c>
       <c r="N14" s="1">
-        <v>3980.5675</v>
+        <v>3970.5254</v>
       </c>
       <c r="O14" s="1">
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>135817.7352</v>
+        <v>135807.2666</v>
       </c>
       <c r="Q14" s="3">
-        <v>0.0391</v>
+        <v>0.039</v>
       </c>
     </row>
   </sheetData>
@@ -3760,16 +3760,16 @@
         <v>12.2867</v>
       </c>
       <c r="C2" s="1">
-        <v>12.2867</v>
+        <v>12.2621</v>
       </c>
       <c r="D2" s="1">
-        <v>12.2867</v>
+        <v>12.3113</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>813.8882</v>
+        <v>812.2619</v>
       </c>
       <c r="G2" s="1">
         <v>10000</v>
@@ -3807,34 +3807,34 @@
         <v>13.0645</v>
       </c>
       <c r="C3" s="1">
-        <v>13.0645</v>
+        <v>13.0384</v>
       </c>
       <c r="D3" s="1">
-        <v>13.0645</v>
+        <v>13.0907</v>
       </c>
       <c r="E3" s="1">
-        <v>813.8882</v>
+        <v>812.2619</v>
       </c>
       <c r="F3" s="1">
-        <v>728.4594</v>
+        <v>733.1731</v>
       </c>
       <c r="G3" s="1">
         <v>20150</v>
       </c>
       <c r="H3" s="1">
-        <v>10633.0422</v>
+        <v>10590.5956</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>10633.0422</v>
+        <v>10590.5956</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>12.2867</v>
+        <v>12.3113</v>
       </c>
       <c r="M3" s="1">
         <v>0</v>
@@ -3846,10 +3846,10 @@
         <v>10000</v>
       </c>
       <c r="P3" s="1">
-        <v>-9516.9578</v>
+        <v>-9597.749299999999</v>
       </c>
       <c r="Q3" s="3">
-        <v>0.0633</v>
+        <v>0.0591</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3860,34 +3860,34 @@
         <v>13.8083</v>
       </c>
       <c r="C4" s="1">
-        <v>13.8083</v>
+        <v>13.7807</v>
       </c>
       <c r="D4" s="1">
-        <v>13.8083</v>
+        <v>13.836</v>
       </c>
       <c r="E4" s="1">
-        <v>1542.3476</v>
+        <v>1545.435</v>
       </c>
       <c r="F4" s="1">
-        <v>663.0108</v>
+        <v>664.3402</v>
       </c>
       <c r="G4" s="1">
         <v>30452.25</v>
       </c>
       <c r="H4" s="1">
-        <v>21297.1981</v>
+        <v>21297.1764</v>
       </c>
       <c r="I4" s="1">
-        <v>483.0422</v>
+        <v>402.2507</v>
       </c>
       <c r="J4" s="1">
-        <v>21780.2404</v>
+        <v>21699.4271</v>
       </c>
       <c r="K4" s="1">
-        <v>19516.9578</v>
+        <v>19597.7493</v>
       </c>
       <c r="L4" s="1">
-        <v>12.6541</v>
+        <v>12.6811</v>
       </c>
       <c r="M4" s="1">
         <v>0</v>
@@ -3899,10 +3899,10 @@
         <v>10000</v>
       </c>
       <c r="P4" s="1">
-        <v>-9155.0519</v>
+        <v>-9191.811600000001</v>
       </c>
       <c r="Q4" s="3">
-        <v>0.0556</v>
+        <v>0.0539</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3913,49 +3913,49 @@
         <v>13.5636</v>
       </c>
       <c r="C5" s="1">
-        <v>13.5636</v>
+        <v>13.5365</v>
       </c>
       <c r="D5" s="1">
-        <v>13.5636</v>
+        <v>13.5908</v>
       </c>
       <c r="E5" s="1">
-        <v>2205.3584</v>
+        <v>2209.7753</v>
       </c>
       <c r="F5" s="1">
-        <v>810.7313</v>
+        <v>812.3526000000001</v>
       </c>
       <c r="G5" s="1">
         <v>40909.0337</v>
       </c>
       <c r="H5" s="1">
-        <v>29912.5988</v>
+        <v>29912.6229</v>
       </c>
       <c r="I5" s="1">
-        <v>1327.9904</v>
+        <v>1210.4391</v>
       </c>
       <c r="J5" s="1">
-        <v>31240.5892</v>
+        <v>31123.062</v>
       </c>
       <c r="K5" s="1">
-        <v>28672.0096</v>
+        <v>28789.5609</v>
       </c>
       <c r="L5" s="1">
-        <v>13.0011</v>
+        <v>13.0283</v>
       </c>
       <c r="M5" s="1">
         <v>0.5</v>
       </c>
       <c r="N5" s="1">
-        <v>694.0564000000001</v>
+        <v>695.4458</v>
       </c>
       <c r="O5" s="1">
         <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>-10302.3785</v>
+        <v>-10345.0759</v>
       </c>
       <c r="Q5" s="3">
-        <v>-0.017</v>
+        <v>-0.0182</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3966,34 +3966,34 @@
         <v>13.1788</v>
       </c>
       <c r="C6" s="1">
-        <v>13.1788</v>
+        <v>13.1524</v>
       </c>
       <c r="D6" s="1">
-        <v>13.1788</v>
+        <v>13.2052</v>
       </c>
       <c r="E6" s="1">
-        <v>3016.0897</v>
+        <v>3022.1279</v>
       </c>
       <c r="F6" s="1">
-        <v>836.6173</v>
+        <v>822.8094</v>
       </c>
       <c r="G6" s="1">
         <v>51522.6693</v>
       </c>
       <c r="H6" s="1">
-        <v>39748.4424</v>
+        <v>39748.2344</v>
       </c>
       <c r="I6" s="1">
-        <v>1025.6118</v>
+        <v>865.3632</v>
       </c>
       <c r="J6" s="1">
-        <v>40774.0543</v>
+        <v>40613.5977</v>
       </c>
       <c r="K6" s="1">
-        <v>39668.4446</v>
+        <v>39830.0825</v>
       </c>
       <c r="L6" s="1">
-        <v>13.1523</v>
+        <v>13.1795</v>
       </c>
       <c r="M6" s="1">
         <v>0</v>
@@ -4005,10 +4005,10 @@
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-11025.6118</v>
+        <v>-10865.3632</v>
       </c>
       <c r="Q6" s="3">
-        <v>-0.0113</v>
+        <v>-0.0124</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -4019,34 +4019,34 @@
         <v>14.5668</v>
       </c>
       <c r="C7" s="1">
-        <v>14.5668</v>
+        <v>14.5377</v>
       </c>
       <c r="D7" s="1">
-        <v>14.5668</v>
+        <v>14.596</v>
       </c>
       <c r="E7" s="1">
-        <v>3852.7069</v>
+        <v>3844.9373</v>
       </c>
       <c r="F7" s="1">
-        <v>423.8335</v>
+        <v>440.1635</v>
       </c>
       <c r="G7" s="1">
         <v>62295.5093</v>
       </c>
       <c r="H7" s="1">
-        <v>56121.6115</v>
+        <v>55896.545</v>
       </c>
       <c r="I7" s="1">
         <v>0</v>
       </c>
       <c r="J7" s="1">
-        <v>56121.6115</v>
+        <v>55896.545</v>
       </c>
       <c r="K7" s="1">
-        <v>50694.0564</v>
+        <v>50695.4458</v>
       </c>
       <c r="L7" s="1">
-        <v>13.158</v>
+        <v>13.185</v>
       </c>
       <c r="M7" s="1">
         <v>0</v>
@@ -4058,10 +4058,10 @@
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-6173.8978</v>
+        <v>-6424.6259</v>
       </c>
       <c r="Q7" s="3">
-        <v>0.1053</v>
+        <v>0.1044</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -4072,49 +4072,49 @@
         <v>13.962</v>
       </c>
       <c r="C8" s="1">
-        <v>13.962</v>
+        <v>13.9341</v>
       </c>
       <c r="D8" s="1">
-        <v>13.962</v>
+        <v>13.99</v>
       </c>
       <c r="E8" s="1">
-        <v>4276.5404</v>
+        <v>4285.1008</v>
       </c>
       <c r="F8" s="1">
-        <v>968.4059999999999</v>
+        <v>970.3475</v>
       </c>
       <c r="G8" s="1">
         <v>73229.94190000001</v>
       </c>
       <c r="H8" s="1">
-        <v>59709.0576</v>
+        <v>59709.0225</v>
       </c>
       <c r="I8" s="1">
-        <v>3826.1022</v>
+        <v>3575.3741</v>
       </c>
       <c r="J8" s="1">
-        <v>63535.1599</v>
+        <v>63284.3966</v>
       </c>
       <c r="K8" s="1">
-        <v>56867.9542</v>
+        <v>57120.0716</v>
       </c>
       <c r="L8" s="1">
-        <v>13.2977</v>
+        <v>13.3299</v>
       </c>
       <c r="M8" s="1">
         <v>0.5</v>
       </c>
       <c r="N8" s="1">
-        <v>1733.7181</v>
+        <v>1730.2218</v>
       </c>
       <c r="O8" s="1">
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-11787.1662</v>
+        <v>-11844.9401</v>
       </c>
       <c r="Q8" s="3">
-        <v>-0.0391</v>
+        <v>-0.0396</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -4125,34 +4125,34 @@
         <v>12.2659</v>
       </c>
       <c r="C9" s="1">
-        <v>12.2659</v>
+        <v>12.2414</v>
       </c>
       <c r="D9" s="1">
-        <v>12.2659</v>
+        <v>12.2905</v>
       </c>
       <c r="E9" s="1">
-        <v>5244.9464</v>
+        <v>5255.4483</v>
       </c>
       <c r="F9" s="1">
-        <v>981.4963</v>
+        <v>954.431</v>
       </c>
       <c r="G9" s="1">
         <v>84328.39109999999</v>
       </c>
       <c r="H9" s="1">
-        <v>64333.9883</v>
+        <v>64334.0446</v>
       </c>
       <c r="I9" s="1">
-        <v>2038.9361</v>
+        <v>1730.434</v>
       </c>
       <c r="J9" s="1">
-        <v>66372.9244</v>
+        <v>66064.47870000001</v>
       </c>
       <c r="K9" s="1">
-        <v>70388.8385</v>
+        <v>70695.2335</v>
       </c>
       <c r="L9" s="1">
-        <v>13.4203</v>
+        <v>13.4518</v>
       </c>
       <c r="M9" s="1">
         <v>0</v>
@@ -4164,10 +4164,10 @@
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-12038.9361</v>
+        <v>-11730.434</v>
       </c>
       <c r="Q9" s="3">
-        <v>-0.0974</v>
+        <v>-0.0985</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -4178,34 +4178,34 @@
         <v>12.4103</v>
       </c>
       <c r="C10" s="1">
-        <v>12.4103</v>
+        <v>12.3855</v>
       </c>
       <c r="D10" s="1">
-        <v>12.4103</v>
+        <v>12.4352</v>
       </c>
       <c r="E10" s="1">
-        <v>6226.4428</v>
+        <v>6209.8793</v>
       </c>
       <c r="F10" s="1">
-        <v>805.7823</v>
+        <v>804.1688</v>
       </c>
       <c r="G10" s="1">
         <v>95593.31690000001</v>
       </c>
       <c r="H10" s="1">
-        <v>77272.0227</v>
+        <v>76912.45970000001</v>
       </c>
       <c r="I10" s="1">
         <v>0</v>
       </c>
       <c r="J10" s="1">
-        <v>77272.0227</v>
+        <v>76912.45970000001</v>
       </c>
       <c r="K10" s="1">
-        <v>82427.7745</v>
+        <v>82425.6675</v>
       </c>
       <c r="L10" s="1">
-        <v>13.2383</v>
+        <v>13.2733</v>
       </c>
       <c r="M10" s="1">
         <v>0</v>
@@ -4220,7 +4220,7 @@
         <v>-10000</v>
       </c>
       <c r="Q10" s="3">
-        <v>0.0118</v>
+        <v>0.0111</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -4231,49 +4231,49 @@
         <v>12.3976</v>
       </c>
       <c r="C11" s="1">
-        <v>12.3976</v>
+        <v>12.3728</v>
       </c>
       <c r="D11" s="1">
-        <v>12.3976</v>
+        <v>12.4224</v>
       </c>
       <c r="E11" s="1">
-        <v>7032.2251</v>
+        <v>7014.0481</v>
       </c>
       <c r="F11" s="1">
-        <v>806.6077</v>
+        <v>804.9974</v>
       </c>
       <c r="G11" s="1">
         <v>107027.2167</v>
       </c>
       <c r="H11" s="1">
-        <v>87182.71339999999</v>
+        <v>86783.41409999999</v>
       </c>
       <c r="I11" s="1">
         <v>0</v>
       </c>
       <c r="J11" s="1">
-        <v>87182.71339999999</v>
+        <v>86783.41409999999</v>
       </c>
       <c r="K11" s="1">
-        <v>92427.7745</v>
+        <v>92425.6675</v>
       </c>
       <c r="L11" s="1">
-        <v>13.1435</v>
+        <v>13.1772</v>
       </c>
       <c r="M11" s="1">
         <v>0.5</v>
       </c>
       <c r="N11" s="1">
-        <v>2801.8992</v>
+        <v>2794.4457</v>
       </c>
       <c r="O11" s="1">
         <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>-7198.1008</v>
+        <v>-7205.5543</v>
       </c>
       <c r="Q11" s="3">
-        <v>-0.001</v>
+        <v>-0.0015</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -4284,34 +4284,34 @@
         <v>12.9013</v>
       </c>
       <c r="C12" s="1">
-        <v>12.9013</v>
+        <v>12.8755</v>
       </c>
       <c r="D12" s="1">
-        <v>12.9014</v>
+        <v>12.9272</v>
       </c>
       <c r="E12" s="1">
-        <v>7838.8328</v>
+        <v>7819.0455</v>
       </c>
       <c r="F12" s="1">
-        <v>992.2876</v>
+        <v>989.7306</v>
       </c>
       <c r="G12" s="1">
         <v>118632.6249</v>
       </c>
       <c r="H12" s="1">
-        <v>101131.1335</v>
+        <v>100674.1204</v>
       </c>
       <c r="I12" s="1">
-        <v>2801.8992</v>
+        <v>2794.4457</v>
       </c>
       <c r="J12" s="1">
-        <v>103933.0328</v>
+        <v>103468.5661</v>
       </c>
       <c r="K12" s="1">
-        <v>102427.7745</v>
+        <v>102425.6675</v>
       </c>
       <c r="L12" s="1">
-        <v>13.0667</v>
+        <v>13.0995</v>
       </c>
       <c r="M12" s="1">
         <v>0</v>
@@ -4323,10 +4323,10 @@
         <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>-12801.8992</v>
+        <v>-12794.4457</v>
       </c>
       <c r="Q12" s="3">
-        <v>0.06950000000000001</v>
+        <v>0.06909999999999999</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -4337,34 +4337,34 @@
         <v>13.3527</v>
       </c>
       <c r="C13" s="1">
-        <v>13.3527</v>
+        <v>13.326</v>
       </c>
       <c r="D13" s="1">
-        <v>13.3527</v>
+        <v>13.3795</v>
       </c>
       <c r="E13" s="1">
-        <v>8831.1204</v>
+        <v>8808.776099999999</v>
       </c>
       <c r="F13" s="1">
-        <v>748.9122</v>
+        <v>747.4121</v>
       </c>
       <c r="G13" s="1">
         <v>130412.1143</v>
       </c>
       <c r="H13" s="1">
-        <v>117919.3013</v>
+        <v>117385.7507</v>
       </c>
       <c r="I13" s="1">
         <v>0</v>
       </c>
       <c r="J13" s="1">
-        <v>117919.3013</v>
+        <v>117385.7507</v>
       </c>
       <c r="K13" s="1">
-        <v>115229.6738</v>
+        <v>115220.1132</v>
       </c>
       <c r="L13" s="1">
-        <v>13.0481</v>
+        <v>13.0802</v>
       </c>
       <c r="M13" s="1">
         <v>0</v>
@@ -4379,7 +4379,7 @@
         <v>-10000</v>
       </c>
       <c r="Q13" s="3">
-        <v>0.035</v>
+        <v>0.0345</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -4390,49 +4390,49 @@
         <v>13.8804</v>
       </c>
       <c r="C14" s="1">
-        <v>13.8804</v>
+        <v>13.8526</v>
       </c>
       <c r="D14" s="1">
-        <v>13.8804</v>
+        <v>13.9082</v>
       </c>
       <c r="E14" s="1">
-        <v>9580.0326</v>
+        <v>9556.188200000001</v>
       </c>
       <c r="F14" s="1">
-        <v>-9580.0326</v>
+        <v>-9556.188200000001</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>132974.6845</v>
+        <v>132378.0528</v>
       </c>
       <c r="I14" s="1">
         <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>132974.6845</v>
+        <v>132378.0528</v>
       </c>
       <c r="K14" s="1">
-        <v>125229.6738</v>
+        <v>125220.1132</v>
       </c>
       <c r="L14" s="1">
-        <v>13.0719</v>
+        <v>13.1036</v>
       </c>
       <c r="M14" s="1">
         <v>0.5</v>
       </c>
       <c r="N14" s="1">
-        <v>3974.0042</v>
+        <v>3963.9493</v>
       </c>
       <c r="O14" s="1">
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>136948.6887</v>
+        <v>136342.0021</v>
       </c>
       <c r="Q14" s="3">
-        <v>0.0395</v>
+        <v>0.0392</v>
       </c>
     </row>
   </sheetData>
@@ -4454,7 +4454,7 @@
     <col min="4" max="4" width="10.7109375" customWidth="1"/>
     <col min="5" max="5" width="10.7109375" customWidth="1"/>
     <col min="6" max="6" width="10.7109375" customWidth="1"/>
-    <col min="7" max="7" width="9.7109375" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -4490,19 +4490,19 @@
         <v>24</v>
       </c>
       <c r="C3" s="1">
-        <v>13.1028</v>
+        <v>13.129</v>
       </c>
       <c r="D3" s="1">
-        <v>13.0184</v>
+        <v>13.047</v>
       </c>
       <c r="E3" s="1">
-        <v>13.03</v>
+        <v>13.0585</v>
       </c>
       <c r="F3" s="1">
-        <v>13.0495</v>
+        <v>13.0824</v>
       </c>
       <c r="G3" s="1">
-        <v>13.0719</v>
+        <v>13.1036</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="3" customFormat="1">
@@ -4513,19 +4513,19 @@
         <v>0.1424</v>
       </c>
       <c r="C4" s="3">
-        <v>0.2097</v>
+        <v>0.1971</v>
       </c>
       <c r="D4" s="3">
-        <v>0.2154</v>
+        <v>0.2035</v>
       </c>
       <c r="E4" s="3">
-        <v>0.2163</v>
+        <v>0.2043</v>
       </c>
       <c r="F4" s="3">
-        <v>0.2162</v>
+        <v>0.2033</v>
       </c>
       <c r="G4" s="3">
-        <v>0.2141</v>
+        <v>0.201</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="3" customFormat="1">
@@ -4536,19 +4536,19 @@
         <v>0.1971</v>
       </c>
       <c r="C5" s="3">
-        <v>0.1833</v>
+        <v>0.1821</v>
       </c>
       <c r="D5" s="3">
-        <v>0.1782</v>
+        <v>0.1776</v>
       </c>
       <c r="E5" s="3">
-        <v>0.18</v>
+        <v>0.1794</v>
       </c>
       <c r="F5" s="3">
-        <v>0.1817</v>
+        <v>0.181</v>
       </c>
       <c r="G5" s="3">
-        <v>0.1832</v>
+        <v>0.1825</v>
       </c>
     </row>
     <row r="6" spans="1:7" s="4" customFormat="1">
@@ -4559,19 +4559,19 @@
         <v>0.6193</v>
       </c>
       <c r="C6" s="4">
-        <v>1.0334</v>
+        <v>0.9706</v>
       </c>
       <c r="D6" s="4">
-        <v>1.0947</v>
+        <v>1.0316</v>
       </c>
       <c r="E6" s="4">
-        <v>1.0886</v>
+        <v>1.0252</v>
       </c>
       <c r="F6" s="4">
-        <v>1.0779</v>
+        <v>1.0109</v>
       </c>
       <c r="G6" s="4">
-        <v>1.0581</v>
+        <v>0.9901</v>
       </c>
     </row>
     <row r="7" spans="1:7" s="3" customFormat="1">
@@ -4579,19 +4579,19 @@
         <v>28</v>
       </c>
       <c r="C7" s="3">
-        <v>0.2674</v>
+        <v>0.2582</v>
       </c>
       <c r="D7" s="3">
-        <v>0.28</v>
+        <v>0.2708</v>
       </c>
       <c r="E7" s="3">
-        <v>0.2804</v>
+        <v>0.2711</v>
       </c>
       <c r="F7" s="3">
-        <v>0.2791</v>
+        <v>0.2687</v>
       </c>
       <c r="G7" s="3">
-        <v>0.275</v>
+        <v>0.2645</v>
       </c>
     </row>
     <row r="8" spans="1:7" s="1" customFormat="1">
@@ -4599,19 +4599,19 @@
         <v>29</v>
       </c>
       <c r="C8" s="1">
-        <v>9056.672200000001</v>
+        <v>9038.2644</v>
       </c>
       <c r="D8" s="1">
-        <v>9049.5674</v>
+        <v>9055.684499999999</v>
       </c>
       <c r="E8" s="1">
-        <v>9162.2809</v>
+        <v>9168.622600000001</v>
       </c>
       <c r="F8" s="1">
-        <v>9215.092199999999</v>
+        <v>9195.4995</v>
       </c>
       <c r="G8" s="1">
-        <v>9203.678</v>
+        <v>9184.0625</v>
       </c>
     </row>
   </sheetData>

--- a/output/1Y_P24_KFSDIV.xlsx
+++ b/output/1Y_P24_KFSDIV.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="31">
   <si>
     <t>NAV</t>
   </si>
@@ -110,6 +110,9 @@
   </si>
   <si>
     <t>Dividend</t>
+  </si>
+  <si>
+    <t>Wealth/Cost</t>
   </si>
 </sst>
 </file>
@@ -4442,13 +4445,13 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" customWidth="1"/>
+    <col min="1" max="1" width="12.7109375" customWidth="1"/>
     <col min="2" max="2" width="8.7109375" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" customWidth="1"/>
     <col min="4" max="4" width="11.7109375" customWidth="1"/>
@@ -4614,6 +4617,26 @@
         <v>10431.2727</v>
       </c>
     </row>
+    <row r="9" spans="1:7" s="4" customFormat="1">
+      <c r="A9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="4">
+        <v>1.0552</v>
+      </c>
+      <c r="D9" s="4">
+        <v>1.1348</v>
+      </c>
+      <c r="E9" s="4">
+        <v>1.104</v>
+      </c>
+      <c r="F9" s="4">
+        <v>1.0729</v>
+      </c>
+      <c r="G9" s="4">
+        <v>1.0578</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
